--- a/data/g_vs_random.xlsx
+++ b/data/g_vs_random.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,10 +452,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>54.7</v>
+        <v>54.6</v>
       </c>
       <c r="C2" t="n">
-        <v>23.746</v>
+        <v>24.165</v>
       </c>
     </row>
     <row r="3">
@@ -465,10 +465,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>53.4</v>
+        <v>56.8</v>
       </c>
       <c r="C3" t="n">
-        <v>24.5</v>
+        <v>23.607</v>
       </c>
     </row>
     <row r="4">
@@ -478,10 +478,23 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54.4</v>
+        <v>52.7</v>
       </c>
       <c r="C4" t="n">
-        <v>23.78</v>
+        <v>24.649</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>23.398</v>
       </c>
     </row>
   </sheetData>

--- a/data/g_vs_random.xlsx
+++ b/data/g_vs_random.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,10 +452,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>54.6</v>
+        <v>51.4</v>
       </c>
       <c r="C2" t="n">
-        <v>24.165</v>
+        <v>24.417</v>
       </c>
     </row>
     <row r="3">
@@ -465,10 +465,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>56.8</v>
+        <v>54.8</v>
       </c>
       <c r="C3" t="n">
-        <v>23.607</v>
+        <v>24.108</v>
       </c>
     </row>
     <row r="4">
@@ -478,10 +478,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52.7</v>
+        <v>50.8</v>
       </c>
       <c r="C4" t="n">
-        <v>24.649</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="5">
@@ -491,10 +491,62 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56.2</v>
+        <v>54.5</v>
       </c>
       <c r="C5" t="n">
-        <v>23.398</v>
+        <v>23.945</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="C6" t="n">
+        <v>24.47</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="C7" t="n">
+        <v>24.002</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>52.3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>24.369</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>55</v>
+      </c>
+      <c r="C9" t="n">
+        <v>24.221</v>
       </c>
     </row>
   </sheetData>

--- a/data/g_vs_random.xlsx
+++ b/data/g_vs_random.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="guerrilla vs. random" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="guerrilla vs. random" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>51.4</v>
+        <v>53.7</v>
       </c>
       <c r="C2" t="n">
-        <v>24.417</v>
+        <v>23.765</v>
       </c>
     </row>
     <row r="3">
@@ -465,10 +465,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>54.8</v>
+        <v>55.1</v>
       </c>
       <c r="C3" t="n">
-        <v>24.108</v>
+        <v>24.23</v>
       </c>
     </row>
     <row r="4">
@@ -478,10 +478,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50.8</v>
+        <v>52.3</v>
       </c>
       <c r="C4" t="n">
-        <v>24.5</v>
+        <v>24.02</v>
       </c>
     </row>
     <row r="5">
@@ -491,10 +491,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>54.5</v>
+        <v>54.8</v>
       </c>
       <c r="C5" t="n">
-        <v>23.945</v>
+        <v>24.318</v>
       </c>
     </row>
     <row r="6">
@@ -504,10 +504,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>55.7</v>
+        <v>57.3</v>
       </c>
       <c r="C6" t="n">
-        <v>24.47</v>
+        <v>23.885</v>
       </c>
     </row>
     <row r="7">
@@ -517,10 +517,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>55.9</v>
+        <v>56.1</v>
       </c>
       <c r="C7" t="n">
-        <v>24.002</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="8">
@@ -530,10 +530,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>52.3</v>
+        <v>56.5</v>
       </c>
       <c r="C8" t="n">
-        <v>24.369</v>
+        <v>23.686</v>
       </c>
     </row>
     <row r="9">
@@ -543,10 +543,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>55</v>
+        <v>54.4</v>
       </c>
       <c r="C9" t="n">
-        <v>24.221</v>
+        <v>23.903</v>
       </c>
     </row>
   </sheetData>

--- a/data/g_vs_random.xlsx
+++ b/data/g_vs_random.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="guerrilla vs. random" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="guerrilla vs. random" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,10 +452,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53.7</v>
+        <v>4.5</v>
       </c>
       <c r="C2" t="n">
-        <v>23.765</v>
+        <v>31.251</v>
       </c>
     </row>
     <row r="3">
@@ -465,10 +465,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>55.1</v>
+        <v>5.1</v>
       </c>
       <c r="C3" t="n">
-        <v>24.23</v>
+        <v>31.389</v>
       </c>
     </row>
     <row r="4">
@@ -478,10 +478,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52.3</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>24.02</v>
+        <v>31.739</v>
       </c>
     </row>
     <row r="5">
@@ -491,10 +491,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>54.8</v>
+        <v>3.9</v>
       </c>
       <c r="C5" t="n">
-        <v>24.318</v>
+        <v>31.404</v>
       </c>
     </row>
     <row r="6">
@@ -504,10 +504,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57.3</v>
+        <v>6.1</v>
       </c>
       <c r="C6" t="n">
-        <v>23.885</v>
+        <v>31.262</v>
       </c>
     </row>
     <row r="7">
@@ -517,36 +517,270 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56.1</v>
+        <v>5.6</v>
       </c>
       <c r="C7" t="n">
-        <v>23.5</v>
+        <v>31.379</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>56.5</v>
+        <v>4.5</v>
       </c>
       <c r="C8" t="n">
-        <v>23.686</v>
+        <v>31.593</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>54.4</v>
+        <v>4.7</v>
       </c>
       <c r="C9" t="n">
-        <v>23.903</v>
+        <v>31.295</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="C10" t="n">
+        <v>31.627</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>31.494</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="C12" t="n">
+        <v>31.469</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>31.333</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="C14" t="n">
+        <v>31.324</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>31.251</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="C16" t="n">
+        <v>31.904</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="C17" t="n">
+        <v>31.621</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>6</v>
+      </c>
+      <c r="C18" t="n">
+        <v>31.383</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>5</v>
+      </c>
+      <c r="C19" t="n">
+        <v>31.52</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="C20" t="n">
+        <v>31.502</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="C21" t="n">
+        <v>31.636</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="C22" t="n">
+        <v>31.51</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="C23" t="n">
+        <v>31.853</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="C24" t="n">
+        <v>31.441</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="C25" t="n">
+        <v>31.691</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="C26" t="n">
+        <v>31.566</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="C27" t="n">
+        <v>31.473</v>
       </c>
     </row>
   </sheetData>

--- a/data/g_vs_random.xlsx
+++ b/data/g_vs_random.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,6 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Model index</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Win rate</t>
@@ -446,341 +451,619 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A2" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="C2" t="n">
-        <v>31.251</v>
+        <v>31.06</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A3" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="C3" t="n">
-        <v>31.389</v>
+        <v>31.614</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="A4" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="C4" t="n">
+        <v>31.865</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>31.487</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>31.668</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C4" t="n">
-        <v>31.739</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+      <c r="B7" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>31.587</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>31.591</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>30.867</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B10" t="n">
         <v>3.9</v>
       </c>
-      <c r="C5" t="n">
-        <v>31.404</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>31.262</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="C7" t="n">
-        <v>31.379</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C8" t="n">
-        <v>31.593</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>31.295</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>4.7</v>
-      </c>
       <c r="C10" t="n">
-        <v>31.627</v>
+        <v>31.383</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+      <c r="A11" s="1" t="n">
+        <v>13</v>
       </c>
       <c r="B11" t="n">
         <v>4</v>
       </c>
       <c r="C11" t="n">
-        <v>31.494</v>
+        <v>31.457</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="A12" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="B12" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="C12" t="n">
+        <v>31.773</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="C13" t="n">
+        <v>31.587</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B14" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="C14" t="n">
+        <v>31.286</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B15" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="C15" t="n">
+        <v>31.632</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="C16" t="n">
+        <v>31.698</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B17" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>31.86</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B18" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="C18" t="n">
+        <v>31.695</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B19" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>31.153</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="C20" t="n">
+        <v>31.31</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="C21" t="n">
+        <v>31.542</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B22" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="C22" t="n">
+        <v>31.529</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B23" t="n">
         <v>4.8</v>
       </c>
-      <c r="C12" t="n">
-        <v>31.469</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+      <c r="C23" t="n">
+        <v>31.398</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B24" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="C24" t="n">
+        <v>31.567</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B25" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="C25" t="n">
+        <v>31.655</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B26" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="C26" t="n">
+        <v>31.559</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B27" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="C27" t="n">
+        <v>31.565</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B28" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="C28" t="n">
+        <v>31.327</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B29" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="C29" t="n">
+        <v>31.361</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B30" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>31.48</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B31" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>31.529</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B32" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="C32" t="n">
+        <v>31.488</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B33" t="n">
         <v>4.5</v>
       </c>
-      <c r="C13" t="n">
-        <v>31.333</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="C14" t="n">
-        <v>31.324</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
+      <c r="C33" t="n">
+        <v>31.356</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B34" t="n">
         <v>4.4</v>
       </c>
-      <c r="C15" t="n">
-        <v>31.251</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
+      <c r="C34" t="n">
+        <v>31.463</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B35" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="C35" t="n">
+        <v>31.518</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B36" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="C36" t="n">
+        <v>31.54</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B37" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="C37" t="n">
+        <v>31.363</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B38" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="C38" t="n">
+        <v>31.477</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B39" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="C39" t="n">
+        <v>31.617</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B40" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="C40" t="n">
+        <v>31.317</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B41" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="C41" t="n">
+        <v>31.498</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B42" t="n">
         <v>3.9</v>
       </c>
-      <c r="C16" t="n">
-        <v>31.904</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
+      <c r="C42" t="n">
+        <v>31.649</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B43" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C43" t="n">
+        <v>31.327</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B44" t="n">
         <v>4.4</v>
       </c>
-      <c r="C17" t="n">
-        <v>31.621</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>6</v>
-      </c>
-      <c r="C18" t="n">
-        <v>31.383</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>5</v>
-      </c>
-      <c r="C19" t="n">
-        <v>31.52</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="C20" t="n">
-        <v>31.502</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="C21" t="n">
-        <v>31.636</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
+      <c r="C44" t="n">
+        <v>31.596</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B45" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="C45" t="n">
+        <v>31.545</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B46" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="C46" t="n">
+        <v>31.653</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B47" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="C47" t="n">
+        <v>31.391</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B48" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="C48" t="n">
+        <v>31.594</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B49" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="C49" t="n">
+        <v>31.557</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B50" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="C50" t="n">
+        <v>31.352</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B51" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="C51" t="n">
+        <v>31.331</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B52" t="n">
+        <v>4</v>
+      </c>
+      <c r="C52" t="n">
+        <v>31.455</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B53" t="n">
+        <v>4</v>
+      </c>
+      <c r="C53" t="n">
+        <v>31.199</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B54" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="C54" t="n">
+        <v>31.478</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B55" t="n">
+        <v>4</v>
+      </c>
+      <c r="C55" t="n">
+        <v>31.45</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B56" t="n">
         <v>4.7</v>
       </c>
-      <c r="C22" t="n">
-        <v>31.51</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="C23" t="n">
-        <v>31.853</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="C24" t="n">
-        <v>31.441</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="C25" t="n">
-        <v>31.691</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="C26" t="n">
-        <v>31.566</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="C27" t="n">
-        <v>31.473</v>
+      <c r="C56" t="n">
+        <v>31.587</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B57" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C57" t="n">
+        <v>31.498</v>
       </c>
     </row>
   </sheetData>
